--- a/Files/1-Data-Dashboard/SwordAG_Claims.xlsx
+++ b/Files/1-Data-Dashboard/SwordAG_Claims.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\GitHub\PwC-Digital-Assurance-Virtual-Internship\Files\1-Data-Dashboard\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{111EC4F8-EC3A-412F-948E-A49DC5F09FD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sword AG Claims" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -322,11 +328,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -390,6 +396,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -436,7 +450,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -468,9 +482,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -502,6 +534,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -677,14 +727,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -761,7 +837,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -838,7 +914,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -915,7 +991,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -992,7 +1068,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -1069,7 +1145,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -1146,7 +1222,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -1223,7 +1299,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1300,7 +1376,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -1377,7 +1453,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -1454,7 +1530,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -1531,7 +1607,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -1608,7 +1684,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -1685,7 +1761,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -1762,7 +1838,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1839,7 +1915,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -1916,7 +1992,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -1993,7 +2069,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -2070,7 +2146,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -2147,7 +2223,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -2224,7 +2300,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -2301,7 +2377,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -2378,7 +2454,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>25</v>
       </c>
